--- a/06  Deliverables/PROJECT X - PROJECT PLAN.xlsx
+++ b/06  Deliverables/PROJECT X - PROJECT PLAN.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="104">
   <si>
     <t>PROJECT X: AUTOMATED ATTENDANCE SYSTEM</t>
   </si>
@@ -161,9 +161,6 @@
     <t>03/19/2025</t>
   </si>
   <si>
-    <t xml:space="preserve"> In Progress</t>
-  </si>
-  <si>
     <t>ST2.2</t>
   </si>
   <si>
@@ -182,9 +179,6 @@
     <t>Requirements Traceability Matrix</t>
   </si>
   <si>
-    <t>In Progress</t>
-  </si>
-  <si>
     <t>T3</t>
   </si>
   <si>
@@ -203,127 +197,133 @@
     <t>03/27/2025</t>
   </si>
   <si>
-    <t>02/29/2025</t>
+    <t>03/29/2025</t>
+  </si>
+  <si>
+    <t>ST3.2</t>
+  </si>
+  <si>
+    <t>Design System Architecture</t>
+  </si>
+  <si>
+    <t>System Architecture Document</t>
+  </si>
+  <si>
+    <t>03/31/2025</t>
+  </si>
+  <si>
+    <t>04/15/2025</t>
+  </si>
+  <si>
+    <t>T4</t>
+  </si>
+  <si>
+    <t>Development Phase</t>
+  </si>
+  <si>
+    <t>ST4.1</t>
+  </si>
+  <si>
+    <t>Develop REST API Backend</t>
+  </si>
+  <si>
+    <t>API with CRUD Operations</t>
+  </si>
+  <si>
+    <t>04/16/2025</t>
+  </si>
+  <si>
+    <t>04/18/2025</t>
+  </si>
+  <si>
+    <t>ST4.2</t>
+  </si>
+  <si>
+    <t>Develop Frontend UI</t>
+  </si>
+  <si>
+    <t>Mobile Interface</t>
+  </si>
+  <si>
+    <t>04/19/2025</t>
+  </si>
+  <si>
+    <t>04/21/2025</t>
+  </si>
+  <si>
+    <t>ST4.3</t>
+  </si>
+  <si>
+    <t>Implement Device Registration Module</t>
+  </si>
+  <si>
+    <t>Authentication &amp; Device Management</t>
+  </si>
+  <si>
+    <t>04/23/2025</t>
+  </si>
+  <si>
+    <t>ST4.4</t>
+  </si>
+  <si>
+    <t>Implement Attendance Tracking Module</t>
+  </si>
+  <si>
+    <t>Attendance Logging System</t>
+  </si>
+  <si>
+    <t>04/25/2025</t>
+  </si>
+  <si>
+    <t>04/27/2025</t>
+  </si>
+  <si>
+    <t>T5</t>
+  </si>
+  <si>
+    <t>Testing &amp; Quality Assurance</t>
+  </si>
+  <si>
+    <t>ST5.1</t>
+  </si>
+  <si>
+    <t>Unit Testing</t>
+  </si>
+  <si>
+    <t>Unit Test Reports</t>
+  </si>
+  <si>
+    <t>ST5.2</t>
+  </si>
+  <si>
+    <t>System Testing</t>
+  </si>
+  <si>
+    <t>System Test Reports</t>
+  </si>
+  <si>
+    <t>05/16/2025</t>
+  </si>
+  <si>
+    <t>05/18/2025</t>
+  </si>
+  <si>
+    <t>T6</t>
+  </si>
+  <si>
+    <t>Deployment &amp; Training</t>
+  </si>
+  <si>
+    <t>ST6.1</t>
+  </si>
+  <si>
+    <t>Deploy System</t>
+  </si>
+  <si>
+    <t>Deployment</t>
   </si>
   <si>
     <t>Pending</t>
-  </si>
-  <si>
-    <t>ST3.2</t>
-  </si>
-  <si>
-    <t>Design System Architecture</t>
-  </si>
-  <si>
-    <t>System Architecture Document</t>
-  </si>
-  <si>
-    <t>03/29/2025</t>
-  </si>
-  <si>
-    <t>03/31/2025</t>
-  </si>
-  <si>
-    <t>- hrs</t>
-  </si>
-  <si>
-    <t>T4</t>
-  </si>
-  <si>
-    <t>Development Phase</t>
-  </si>
-  <si>
-    <t>ST4.1</t>
-  </si>
-  <si>
-    <t>Develop REST API Backend</t>
-  </si>
-  <si>
-    <t>API with CRUD Operations</t>
-  </si>
-  <si>
-    <t>ST4.2</t>
-  </si>
-  <si>
-    <t>Develop Frontend UI</t>
-  </si>
-  <si>
-    <t>Mobile Interface</t>
-  </si>
-  <si>
-    <t>ST4.3</t>
-  </si>
-  <si>
-    <t>Implement Device Registration Module</t>
-  </si>
-  <si>
-    <t>Authentication &amp; Device Management</t>
-  </si>
-  <si>
-    <t>ST4.4</t>
-  </si>
-  <si>
-    <t>Implement Attendance Tracking Module</t>
-  </si>
-  <si>
-    <t>Attendance Logging System</t>
-  </si>
-  <si>
-    <t>04/16/2025</t>
-  </si>
-  <si>
-    <t>T5</t>
-  </si>
-  <si>
-    <t>Testing &amp; Quality Assurance</t>
-  </si>
-  <si>
-    <t>ST5.1</t>
-  </si>
-  <si>
-    <t>Unit Testing</t>
-  </si>
-  <si>
-    <t>Unit Test Reports</t>
-  </si>
-  <si>
-    <t>04/18/2025</t>
-  </si>
-  <si>
-    <t>04/21/2025</t>
-  </si>
-  <si>
-    <t>ST5.2</t>
-  </si>
-  <si>
-    <t>System Testing</t>
-  </si>
-  <si>
-    <t>System Test Reports</t>
-  </si>
-  <si>
-    <t>04/23/2025</t>
-  </si>
-  <si>
-    <t>T6</t>
-  </si>
-  <si>
-    <t>Deployment &amp; Training</t>
-  </si>
-  <si>
-    <t>ST6.1</t>
-  </si>
-  <si>
-    <t>Deploy System</t>
-  </si>
-  <si>
-    <t>Deployment</t>
-  </si>
-  <si>
-    <t>04/25/2025</t>
-  </si>
-  <si>
-    <t>04/27/2025</t>
   </si>
   <si>
     <t>T7</t>
@@ -520,7 +520,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -530,12 +530,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -862,7 +856,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -886,16 +880,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -904,89 +898,89 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1014,9 +1008,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1340,8 +1331,8 @@
   <sheetPr/>
   <dimension ref="A3:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D15" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="C17" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1638,24 +1629,28 @@
       <c r="J12" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="K12" s="8"/>
-      <c r="L12" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="M12" s="7"/>
+      <c r="K12" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="M12" s="7">
+        <v>2</v>
+      </c>
       <c r="N12" s="3"/>
     </row>
     <row r="13" ht="30" spans="1:14">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
       <c r="C13" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="E13" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>47</v>
       </c>
       <c r="F13" s="7">
         <v>2</v>
@@ -1672,24 +1667,28 @@
       <c r="J13" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="K13" s="7"/>
-      <c r="L13" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="M13" s="7"/>
+      <c r="K13" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="M13" s="7">
+        <v>2</v>
+      </c>
       <c r="N13" s="3"/>
     </row>
     <row r="14" ht="30" spans="1:14">
       <c r="A14" s="5"/>
       <c r="B14" s="6"/>
       <c r="C14" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="E14" s="6" t="s">
         <v>49</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>50</v>
       </c>
       <c r="F14" s="7">
         <v>2</v>
@@ -1706,28 +1705,32 @@
       <c r="J14" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="K14" s="7"/>
-      <c r="L14" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="M14" s="7"/>
+      <c r="K14" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L14" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="M14" s="7">
+        <v>2</v>
+      </c>
       <c r="N14" s="3"/>
     </row>
     <row r="15" ht="30" spans="1:14">
       <c r="A15" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="D15" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="E15" s="6" t="s">
         <v>54</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>56</v>
       </c>
       <c r="F15" s="7">
         <v>3</v>
@@ -1736,30 +1739,36 @@
         <v>28</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="M15" s="7"/>
+        <v>56</v>
+      </c>
+      <c r="J15" s="8">
+        <v>45692</v>
+      </c>
+      <c r="K15" s="8">
+        <v>45781</v>
+      </c>
+      <c r="L15" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="M15" s="7">
+        <v>3</v>
+      </c>
       <c r="N15" s="3"/>
     </row>
     <row r="16" ht="45" spans="1:14">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F16" s="7">
         <v>2</v>
@@ -1768,36 +1777,40 @@
         <v>28</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="M16" s="7" t="s">
-        <v>65</v>
+        <v>60</v>
+      </c>
+      <c r="J16" s="8">
+        <v>45934</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L16" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="M16" s="7">
+        <v>5</v>
       </c>
       <c r="N16" s="3"/>
     </row>
     <row r="17" ht="30" spans="1:14">
       <c r="A17" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>66</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>70</v>
       </c>
       <c r="F17" s="7">
         <v>3</v>
@@ -1811,13 +1824,17 @@
       <c r="I17" s="8">
         <v>45751</v>
       </c>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="M17" s="7" t="s">
-        <v>65</v>
+      <c r="J17" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L17" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="M17" s="7">
+        <v>2</v>
       </c>
       <c r="N17" s="3"/>
     </row>
@@ -1825,13 +1842,13 @@
       <c r="A18" s="5"/>
       <c r="B18" s="6"/>
       <c r="C18" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" s="6" t="s">
         <v>71</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>73</v>
       </c>
       <c r="F18" s="7">
         <v>4</v>
@@ -1845,13 +1862,17 @@
       <c r="I18" s="8">
         <v>45873</v>
       </c>
-      <c r="J18" s="7"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="M18" s="7" t="s">
-        <v>65</v>
+      <c r="J18" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="L18" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="M18" s="7">
+        <v>2</v>
       </c>
       <c r="N18" s="3"/>
     </row>
@@ -1879,13 +1900,17 @@
       <c r="I19" s="8">
         <v>45995</v>
       </c>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="M19" s="7" t="s">
-        <v>65</v>
+      <c r="J19" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="L19" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="M19" s="7">
+        <v>2</v>
       </c>
       <c r="N19" s="3"/>
     </row>
@@ -1893,13 +1918,13 @@
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F20" s="7">
         <v>4</v>
@@ -1911,33 +1936,37 @@
         <v>45995</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="J20" s="8"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="M20" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L20" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="M20" s="7">
+        <v>2</v>
       </c>
       <c r="N20" s="3"/>
     </row>
     <row r="21" ht="30" spans="1:14">
       <c r="A21" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F21" s="7">
         <v>2</v>
@@ -1946,18 +1975,22 @@
         <v>23</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="M21" s="7" t="s">
-        <v>65</v>
+        <v>73</v>
+      </c>
+      <c r="J21" s="8">
+        <v>45935</v>
+      </c>
+      <c r="K21" s="8">
+        <v>45996</v>
+      </c>
+      <c r="L21" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="M21" s="7">
+        <v>2</v>
       </c>
       <c r="N21" s="3"/>
     </row>
@@ -1980,36 +2013,40 @@
         <v>23</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="I22" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="M22" s="7" t="s">
-        <v>65</v>
+      <c r="K22" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L22" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="M22" s="7">
+        <v>2</v>
       </c>
       <c r="N22" s="3"/>
     </row>
     <row r="23" ht="30" spans="1:14">
       <c r="A23" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F23" s="7">
         <v>2</v>
@@ -2018,19 +2055,17 @@
         <v>28</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
-      <c r="L23" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="M23" s="7" t="s">
-        <v>65</v>
-      </c>
+      <c r="L23" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="M23" s="7"/>
       <c r="N23" s="3"/>
     </row>
     <row r="24" ht="45" spans="1:14">
@@ -2063,12 +2098,10 @@
       </c>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
-      <c r="L24" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="M24" s="7" t="s">
-        <v>65</v>
-      </c>
+      <c r="L24" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="M24" s="7"/>
       <c r="N24" s="3"/>
     </row>
     <row r="25" spans="1:14">
